--- a/python/models/Regressors/results/connectance/Connectance.xlsx
+++ b/python/models/Regressors/results/connectance/Connectance.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/parkerkingfournier/Desktop/connectance/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/parkerkingfournier/Documents/Development/workspace/projects/Ecological-Inference/python/models/Regressors/results/connectance/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1062,11 +1062,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1709869648"/>
-        <c:axId val="1709871968"/>
+        <c:axId val="-795545456"/>
+        <c:axId val="-795542704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1709869648"/>
+        <c:axId val="-795545456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1109,7 +1109,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1709871968"/>
+        <c:crossAx val="-795542704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1117,7 +1117,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1709871968"/>
+        <c:axId val="-795542704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1167,7 +1167,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1709869648"/>
+        <c:crossAx val="-795545456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2191,11 +2191,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1703252352"/>
-        <c:axId val="1710838448"/>
+        <c:axId val="-789014336"/>
+        <c:axId val="-789012016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1703252352"/>
+        <c:axId val="-789014336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2238,7 +2238,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1710838448"/>
+        <c:crossAx val="-789012016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2246,7 +2246,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1710838448"/>
+        <c:axId val="-789012016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2296,7 +2296,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1703252352"/>
+        <c:crossAx val="-789014336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3494,15 +3494,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>273050</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:colOff>387350</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3524,15 +3524,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>501650</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3817,10 +3817,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G63" sqref="G63"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4895,6 +4895,26 @@
         <v>5.8230932801961899E-2</v>
       </c>
     </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B44">
+        <f>MIN(B2:B41)</f>
+        <v>0.18578091263770999</v>
+      </c>
+      <c r="C44">
+        <f t="shared" ref="C44:D44" si="0">MIN(C2:C41)</f>
+        <v>7.9519651830196297E-2</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>5.6703001260757398E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B46">
+        <f>AVERAGE(B44:D44)</f>
+        <v>0.10733452190955456</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
